--- a/teach.xlsx
+++ b/teach.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -422,6 +422,20 @@
         <v>a</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>112312</v>
+      </c>
+      <c r="B4" t="str">
+        <v>123</v>
+      </c>
+      <c r="C4" t="str">
+        <v>123</v>
+      </c>
+      <c r="D4" t="str">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>